--- a/excel/Описание_работ/8/Физика/KS.xlsx
+++ b/excel/Описание_работ/8/Физика/KS.xlsx
@@ -673,7 +673,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
